--- a/Avg of Avg/Summarised Tables.xlsx
+++ b/Avg of Avg/Summarised Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msncp\OneDrive\Desktop\Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNAIR1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C964E2-138D-42DD-8B8E-35D87E33FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA9317-FCA6-4C64-98C4-05BAEF794BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summarised SubCategory" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,66 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Copiers</t>
-  </si>
-  <si>
-    <t>Machines</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Tables</t>
-  </si>
-  <si>
-    <t>Chairs</t>
-  </si>
-  <si>
-    <t>Bookcases</t>
-  </si>
-  <si>
-    <t>Phones</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>Appliances</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>Binders</t>
-  </si>
-  <si>
-    <t>Furnishings</t>
-  </si>
-  <si>
-    <t>Envelopes</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Fasteners</t>
-  </si>
-  <si>
     <t>Overall Average</t>
   </si>
   <si>
@@ -118,6 +56,66 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>Haunted House</t>
+  </si>
+  <si>
+    <t>James Bond Aston Martin DB5</t>
+  </si>
+  <si>
+    <t>NASA Apollo 11 Lunar Lander</t>
+  </si>
+  <si>
+    <t>Old Trafford - Manchester United</t>
+  </si>
+  <si>
+    <t>Creator Expert</t>
+  </si>
+  <si>
+    <t>Batman vs. The Riddler Robbery</t>
+  </si>
+  <si>
+    <t>Batman: Brother Eye Takedown</t>
+  </si>
+  <si>
+    <t>Batman: The Attack of the Talons</t>
+  </si>
+  <si>
+    <t>Batmobile: Pursuit of The Joker</t>
+  </si>
+  <si>
+    <t>Battle-Ready Batman and MetalBeard</t>
+  </si>
+  <si>
+    <t>Batwing and The Riddler Heist</t>
+  </si>
+  <si>
+    <t>Joker's Trike Chase</t>
+  </si>
+  <si>
+    <t>Mr. Freeze Batcycle Battle</t>
+  </si>
+  <si>
+    <t>The Joker Batcave Attack</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Coding Express</t>
+  </si>
+  <si>
+    <t>Expansion Set</t>
+  </si>
+  <si>
+    <t>My XL World</t>
+  </si>
+  <si>
+    <t>SPIKE Prime Set</t>
+  </si>
+  <si>
+    <t>Lego Education</t>
   </si>
 </sst>
 </file>
@@ -607,7 +605,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -966,33 +964,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1001,13 +1000,13 @@
       </c>
       <c r="B2" t="str">
         <f>C2&amp;D2</f>
-        <v>FurnitureBookcases</v>
+        <v>Creator ExpertHaunted House</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>503.85963289473602</v>
@@ -1019,13 +1018,13 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B18" si="0">C3&amp;D3</f>
-        <v>FurnitureChairs</v>
+        <v>Creator ExpertJames Bond Aston Martin DB5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>532.33241977309501</v>
@@ -1037,13 +1036,13 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>FurnitureFurnishings</v>
+        <v>Creator ExpertNASA Apollo 11 Lunar Lander</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>95.825667711598697</v>
@@ -1055,13 +1054,13 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>FurnitureTables</v>
+        <v>Creator ExpertOld Trafford - Manchester United</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>648.79477115987402</v>
@@ -1073,13 +1072,13 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesAppliances</v>
+        <v>BatmanBatman vs. The Riddler Robbery</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>230.755710300429</v>
@@ -1091,13 +1090,13 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesArt</v>
+        <v>BatmanBatman: Brother Eye Takedown</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>34.068834170854203</v>
@@ -1109,13 +1108,13 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesBinders</v>
+        <v>BatmanBatman: The Attack of the Talons</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>133.56056007879101</v>
@@ -1127,13 +1126,13 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesEnvelopes</v>
+        <v>BatmanBatmobile: Pursuit of The Joker</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>64.867724409448797</v>
@@ -1145,13 +1144,13 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesFasteners</v>
+        <v>BatmanBattle-Ready Batman and MetalBeard</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>13.936774193548301</v>
@@ -1163,13 +1162,13 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesLabels</v>
+        <v>BatmanBatwing and The Riddler Heist</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>34.303054945054903</v>
@@ -1181,13 +1180,13 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesPaper</v>
+        <v>BatmanJoker's Trike Chase</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>57.284091970802898</v>
@@ -1199,13 +1198,13 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesStorage</v>
+        <v>BatmanMr. Freeze Batcycle Battle</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>264.59055319148899</v>
@@ -1217,13 +1216,13 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Office SuppliesSupplies</v>
+        <v>BatmanThe Joker Batcave Attack</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>245.65020000000001</v>
@@ -1235,13 +1234,13 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>TechnologyAccessories</v>
+        <v>Lego EducationCoding Express</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>215.974603870967</v>
@@ -1253,13 +1252,13 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>TechnologyCopiers</v>
+        <v>Lego EducationExpansion Set</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1">
         <v>2198.94161764705</v>
@@ -1271,13 +1270,13 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>TechnologyMachines</v>
+        <v>Lego EducationMy XL World</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1">
         <v>1645.5533130434701</v>
@@ -1289,13 +1288,13 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>TechnologyPhones</v>
+        <v>Lego EducationSPIKE Prime Set</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1">
         <v>371.21153430821101</v>
@@ -1311,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,13 +1323,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1338,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>445.20312288482592</v>
@@ -1349,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>119.89083369560201</v>
@@ -1360,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>1107.9202672174245</v>
@@ -1371,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE(C4,C3,C2)</f>
